--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,130 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>764636</t>
+  </si>
+  <si>
+    <t>0.634197</t>
+  </si>
+  <si>
+    <t>1.63656</t>
+  </si>
+  <si>
+    <t>0.606834</t>
+  </si>
+  <si>
+    <t>1.6479</t>
+  </si>
+  <si>
+    <t>0.557715</t>
+  </si>
+  <si>
+    <t>0.303417</t>
+  </si>
+  <si>
+    <t>757108</t>
+  </si>
+  <si>
+    <t>1.63355</t>
+  </si>
+  <si>
+    <t>0.611654</t>
+  </si>
+  <si>
+    <t>1.63491</t>
+  </si>
+  <si>
+    <t>0.204265</t>
+  </si>
+  <si>
+    <t>0.407769</t>
+  </si>
+  <si>
+    <t>793002</t>
+  </si>
+  <si>
+    <t>0.583139</t>
+  </si>
+  <si>
+    <t>1.65757</t>
+  </si>
+  <si>
+    <t>0.410841</t>
+  </si>
+  <si>
+    <t>2.43403</t>
+  </si>
+  <si>
+    <t>0.78244</t>
+  </si>
+  <si>
+    <t>0.205421</t>
+  </si>
+  <si>
+    <t>700393</t>
+  </si>
+  <si>
+    <t>0.663848</t>
+  </si>
+  <si>
+    <t>1.59155</t>
+  </si>
+  <si>
+    <t>0.61905</t>
+  </si>
+  <si>
+    <t>1.61538</t>
+  </si>
+  <si>
+    <t>0.632743</t>
+  </si>
+  <si>
+    <t>0.309525</t>
+  </si>
+  <si>
+    <t>764645</t>
+  </si>
+  <si>
+    <t>0.647183</t>
+  </si>
+  <si>
+    <t>1.63197</t>
+  </si>
+  <si>
+    <t>0.55805</t>
+  </si>
+  <si>
+    <t>1.1599e+006</t>
+  </si>
+  <si>
+    <t>0.645395</t>
+  </si>
+  <si>
+    <t>0.60624</t>
+  </si>
+  <si>
+    <t>0.404556</t>
+  </si>
+  <si>
+    <t>0.634824</t>
+  </si>
+  <si>
+    <t>1.63618</t>
+  </si>
+  <si>
+    <t>0.0204403</t>
+  </si>
+  <si>
+    <t>0.675442</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +277,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +542,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +584,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>soluzione1</t>
   </si>
@@ -588,208 +588,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>764635.52688172041</v>
+      </c>
+      <c r="C2">
+        <v>0.63419718152228433</v>
+      </c>
+      <c r="D2">
+        <v>1.6365595343489192</v>
+      </c>
+      <c r="E2">
+        <v>0.60683407963872338</v>
+      </c>
+      <c r="F2">
+        <v>1.6478969022230041</v>
+      </c>
+      <c r="G2">
+        <v>0.55771536155148516</v>
+      </c>
+      <c r="H2">
+        <v>0.30341703981936169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
+      <c r="B3">
+        <v>757108.37715102802</v>
+      </c>
+      <c r="C3">
+        <v>0.63419718152228433</v>
+      </c>
+      <c r="D3">
+        <v>1.6335467235737442</v>
+      </c>
+      <c r="E3">
+        <v>0.61165409502275048</v>
+      </c>
+      <c r="F3">
+        <v>1.6349109866791705</v>
+      </c>
+      <c r="G3">
+        <v>0.20426512587948348</v>
+      </c>
+      <c r="H3">
+        <v>0.40776939668183365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
+      <c r="B4">
+        <v>793002.28726752941</v>
+      </c>
+      <c r="C4">
+        <v>0.58313866382952373</v>
+      </c>
+      <c r="D4">
+        <v>1.6575702372574237</v>
+      </c>
+      <c r="E4">
+        <v>0.41084110022624709</v>
+      </c>
+      <c r="F4">
+        <v>2.4340310632244622</v>
+      </c>
+      <c r="G4">
+        <v>0.7824403938509884</v>
+      </c>
+      <c r="H4">
+        <v>0.20542055011312355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
+      <c r="B5">
+        <v>700392.80825683125</v>
+      </c>
+      <c r="C5">
+        <v>0.66384815829173438</v>
+      </c>
+      <c r="D5">
+        <v>1.5915533126089845</v>
+      </c>
+      <c r="E5">
+        <v>0.61905013932335839</v>
+      </c>
+      <c r="F5">
+        <v>1.6153780388338685</v>
+      </c>
+      <c r="G5">
+        <v>0.63274333246766745</v>
+      </c>
+      <c r="H5">
+        <v>0.3095250696616792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
+      <c r="B6">
+        <v>764645.40860215051</v>
+      </c>
+      <c r="C6">
+        <v>0.64718259108148857</v>
+      </c>
+      <c r="D6">
+        <v>1.6319730143053177</v>
+      </c>
+      <c r="E6">
+        <v>0.60683407963872338</v>
+      </c>
+      <c r="F6">
+        <v>1.6478969022230041</v>
+      </c>
+      <c r="G6">
+        <v>0.55805036610874137</v>
+      </c>
+      <c r="H6">
+        <v>0.30341703981936169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
+      <c r="B7">
+        <v>1159904.3440860214</v>
+      </c>
+      <c r="C7">
+        <v>0.64539500322256538</v>
+      </c>
+      <c r="D7">
+        <v>1.6365595343489194</v>
+      </c>
+      <c r="E7">
+        <v>0.60683407963872338</v>
+      </c>
+      <c r="F7">
+        <v>1.6478969022230041</v>
+      </c>
+      <c r="G7">
+        <v>0.60623951395366027</v>
+      </c>
+      <c r="H7">
+        <v>0.40455605309248233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+      <c r="B8">
+        <v>764635.6641611699</v>
+      </c>
+      <c r="C8">
+        <v>0.63482389414391616</v>
+      </c>
+      <c r="D8">
+        <v>1.6361801177861144</v>
+      </c>
+      <c r="E8">
+        <v>0.60683407963872338</v>
+      </c>
+      <c r="F8">
+        <v>1.6478969022230041</v>
+      </c>
+      <c r="G8">
+        <v>0.020440260709026607</v>
+      </c>
+      <c r="H8">
+        <v>0.40455605309248233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
+      <c r="B9">
+        <v>700392.80825683137</v>
+      </c>
+      <c r="C9">
+        <v>0.63419718152228433</v>
+      </c>
+      <c r="D9">
+        <v>1.6365595343489192</v>
+      </c>
+      <c r="E9">
+        <v>0.60683407963872327</v>
+      </c>
+      <c r="F9">
+        <v>1.6478969022230041</v>
+      </c>
+      <c r="G9">
+        <v>0.6754424472015631</v>
+      </c>
+      <c r="H9">
+        <v>0.40455605309248233</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/DMU/dmu-2.xlsx
@@ -607,7 +607,7 @@
         <v>0.55771536155148516</v>
       </c>
       <c r="H2">
-        <v>0.30341703981936169</v>
+        <v>0.60683407963872338</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         <v>0.20426512587948348</v>
       </c>
       <c r="H3">
-        <v>0.40776939668183365</v>
+        <v>0.61165409502275048</v>
       </c>
     </row>
     <row r="4">
@@ -659,7 +659,7 @@
         <v>0.7824403938509884</v>
       </c>
       <c r="H4">
-        <v>0.20542055011312355</v>
+        <v>0.41084110022624709</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         <v>0.63274333246766745</v>
       </c>
       <c r="H5">
-        <v>0.3095250696616792</v>
+        <v>0.61905013932335839</v>
       </c>
     </row>
     <row r="6">
@@ -711,7 +711,7 @@
         <v>0.55805036610874137</v>
       </c>
       <c r="H6">
-        <v>0.30341703981936169</v>
+        <v>0.60683407963872338</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.60623951395366027</v>
       </c>
       <c r="H7">
-        <v>0.40455605309248233</v>
+        <v>0.60683407963872338</v>
       </c>
     </row>
     <row r="8">
@@ -763,7 +763,7 @@
         <v>0.020440260709026607</v>
       </c>
       <c r="H8">
-        <v>0.40455605309248233</v>
+        <v>0.60683407963872338</v>
       </c>
     </row>
     <row r="9">
@@ -789,7 +789,7 @@
         <v>0.6754424472015631</v>
       </c>
       <c r="H9">
-        <v>0.40455605309248233</v>
+        <v>0.60683407963872327</v>
       </c>
     </row>
   </sheetData>
